--- a/Intelligent Assistant/Services/Assistant/Current_Report.xlsx
+++ b/Intelligent Assistant/Services/Assistant/Current_Report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I248"/>
+  <dimension ref="A1:I262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9614,6 +9614,524 @@
         </is>
       </c>
     </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>17:19:34 - 06/23/2023</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>112.6402820808101</v>
+      </c>
+      <c r="D249" t="n">
+        <v>112.64</v>
+      </c>
+      <c r="E249" t="n">
+        <v>8.000000000000001e-05</v>
+      </c>
+      <c r="F249" t="n">
+        <v>6.467465322278749e-05</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Light</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>The real value was far to low than the prediction given</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>ReacEc_L1</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>17:19:34 - 06/23/2023</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>199240447.0777591</v>
+      </c>
+      <c r="D250" t="n">
+        <v>199234446.0580649</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.00013</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.000107556038410681</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Light</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>The real value was far to low than the prediction given</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>RealE_SUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>17:19:40 - 06/23/2023</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>112.6402820808101</v>
+      </c>
+      <c r="D251" t="n">
+        <v>112.64</v>
+      </c>
+      <c r="E251" t="n">
+        <v>8.000000000000001e-05</v>
+      </c>
+      <c r="F251" t="n">
+        <v>6.467465322278749e-05</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Light</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>The real value was far to low than the prediction given</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>ReacEc_L1</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>17:19:40 - 06/23/2023</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>199256853.554048</v>
+      </c>
+      <c r="D252" t="n">
+        <v>199251348.9071368</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.00012</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.000107556038410681</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Light</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>The real value was far to low than the prediction given</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>RealE_SUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>17:19:44 - 06/23/2023</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>112.6402820808101</v>
+      </c>
+      <c r="D253" t="n">
+        <v>112.64</v>
+      </c>
+      <c r="E253" t="n">
+        <v>8.000000000000001e-05</v>
+      </c>
+      <c r="F253" t="n">
+        <v>6.467465322278749e-05</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Light</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>The real value was far to low than the prediction given</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>ReacEc_L1</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>17:19:44 - 06/23/2023</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>199269304.7866937</v>
+      </c>
+      <c r="D254" t="n">
+        <v>199263074.1293598</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.00014</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.000107556038410681</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Light</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>The real value was far to low than the prediction given</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>RealE_SUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>17:19:48 - 06/23/2023</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>43275.50280046402</v>
+      </c>
+      <c r="D255" t="n">
+        <v>98219.27896711612</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.41398</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.1916018245825234</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Light</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>The real value was to high when compared with the prediction given</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>P_SUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>17:19:48 - 06/23/2023</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>112.6402820808101</v>
+      </c>
+      <c r="D256" t="n">
+        <v>112.64</v>
+      </c>
+      <c r="E256" t="n">
+        <v>8.000000000000001e-05</v>
+      </c>
+      <c r="F256" t="n">
+        <v>6.467465322278749e-05</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Light</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>The real value was far to low than the prediction given</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>ReacEc_L1</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>17:19:48 - 06/23/2023</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>199280741.1545181</v>
+      </c>
+      <c r="D257" t="n">
+        <v>199275439.9843464</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.00012</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.000107556038410681</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Light</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>The real value was far to low than the prediction given</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>RealE_SUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>17:19:52 - 06/23/2023</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>112.6402820808101</v>
+      </c>
+      <c r="D258" t="n">
+        <v>112.64</v>
+      </c>
+      <c r="E258" t="n">
+        <v>8.000000000000001e-05</v>
+      </c>
+      <c r="F258" t="n">
+        <v>6.467465322278749e-05</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Light</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>The real value was far to low than the prediction given</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>ReacEc_L1</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>17:19:52 - 06/23/2023</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>199292261.1964708</v>
+      </c>
+      <c r="D259" t="n">
+        <v>199286649.4150623</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.00013</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.000107556038410681</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Light</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>The real value was far to low than the prediction given</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>RealE_SUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>17:19:52 - 06/23/2023</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>236.6855845130284</v>
+      </c>
+      <c r="D260" t="n">
+        <v>237.5550451858412</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.0745</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.04248377113243633</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Light</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>The real value was to high when compared with the prediction given</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>U_L1_N</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>17:20:06 - 06/23/2023</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>112.6402820808101</v>
+      </c>
+      <c r="D261" t="n">
+        <v>112.64</v>
+      </c>
+      <c r="E261" t="n">
+        <v>8.000000000000001e-05</v>
+      </c>
+      <c r="F261" t="n">
+        <v>6.467465322278749e-05</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Light</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>The real value was far to low than the prediction given</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>ReacEc_L1</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>17:20:06 - 06/23/2023</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>199332831.6961148</v>
+      </c>
+      <c r="D262" t="n">
+        <v>199327475.9582853</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.00012</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.000107556038410681</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Light</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>The real value was far to low than the prediction given</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>RealE_SUM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
